--- a/results/I3_N5_M2_T45_C150_DepCentral_s4_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.0155370034997</v>
+        <v>1586.300079054225</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.422290051102638e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.73074255039767</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.702102688271697</v>
+        <v>10.78589910652771</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.246897141370778</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>832.7400000000031</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.46902814888774</v>
+        <v>39.58582527041438</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.61595173195241</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.77463816779881</v>
+        <v>3.175153539594582</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>31.61595173195241</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>37.11679712152664</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.28505371695348</v>
+        <v>42.40185083848012</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.94979170739339</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,15 +1113,99 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>170.48</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>173.275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>175.17</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>173.565</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>163.055</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>142.985</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>153.285</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.295</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>166.685</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.335</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>198.9800000000008</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>211.685</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>214.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>220.545</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>215.3150000000007</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>62.47500000000007</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>70.31500000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>62.66000000000007</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>73.21000000000006</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.06500000000007</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.4849999999997</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>67.7649999999997</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.50499999999971</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>69.0599999999997</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>66.45</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>170.48</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>173.275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>175.17</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>173.565</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>163.055</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>198.9800000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>211.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>214.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>220.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>215.3150000000007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.47999999999999</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>23.27500000000001</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>25.17000000000002</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>23.56499999999999</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.05500000000001</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>48.98000000000076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1711,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>61.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1722,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>64.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1733,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.54500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1744,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>65.31500000000074</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1912,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -1923,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1934,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1945,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2069,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2151,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2162,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2173,10 +2257,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2184,10 +2268,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2195,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2206,10 +2290,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2217,10 +2301,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2228,10 +2312,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2239,12 +2323,23 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
